--- a/material/Hackathon_excel.xlsx
+++ b/material/Hackathon_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yssdevgr-my.sharepoint.com/personal/k_mylonas_ysoft_gr/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{FB9CF0F9-AA2E-4F02-8A33-9354BCA536CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3998FB-E69B-4F06-A7D1-7E7F89371963}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{FB9CF0F9-AA2E-4F02-8A33-9354BCA536CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E26F2A14-1B9B-4532-A3BF-26A42EFCA10A}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="17460" windowHeight="10260" activeTab="5" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="149">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -446,6 +446,48 @@
   </si>
   <si>
     <t>Empty date array returned.</t>
+  </si>
+  <si>
+    <t>Use Promo Code</t>
+  </si>
+  <si>
+    <t>Use empty promo code.</t>
+  </si>
+  <si>
+    <t>Put an empty promo code in the promo code field.</t>
+  </si>
+  <si>
+    <t>Visit the cart page with items inside.</t>
+  </si>
+  <si>
+    <t>Input an empty promo code.</t>
+  </si>
+  <si>
+    <t>No discount applied, empty promo code message.</t>
+  </si>
+  <si>
+    <t>Invalid promo code</t>
+  </si>
+  <si>
+    <t>Put an invalid promo code in the promo code field.</t>
+  </si>
+  <si>
+    <t>Input an invalid promo code.</t>
+  </si>
+  <si>
+    <t>No discount, invalid promo code message.</t>
+  </si>
+  <si>
+    <t>Valid promo code</t>
+  </si>
+  <si>
+    <t>Valid promo code input and discount applied.</t>
+  </si>
+  <si>
+    <t>Input a valid promo code.</t>
+  </si>
+  <si>
+    <t>Promo code accepted message and discount applied.</t>
   </si>
 </sst>
 </file>
@@ -606,16 +648,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -625,12 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -654,16 +684,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,6 +711,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -980,317 +1014,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA5E904-0AC9-4BED-A871-AC80F7C33B3B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="10"/>
+    <col min="1" max="1" width="15.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
         <v>45282</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
         <v>45282</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>45282</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11"/>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>45282</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>45282</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>45282</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>45282</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <v>45282</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="10">
         <v>45282</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>45282</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>45282</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <v>45282</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="10">
         <v>45282</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="10">
         <v>45282</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>45282</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>45282</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>45282</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="10">
         <v>45282</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="10">
         <v>45282</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>6</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="16.75" thickBot="1">
-      <c r="A22" s="11">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="10">
         <v>45282</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="C22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.75" thickBot="1">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>45282</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.75" thickBot="1">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>45282</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1325,125 +1387,125 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20"/>
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14"/>
       <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="16"/>
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="16"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="16"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1452,100 +1514,100 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19">
-        <v>2</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="16"/>
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="16"/>
+      <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="16"/>
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="16"/>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A17" s="9">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1554,88 +1616,88 @@
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>3</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>3</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1644,77 +1706,77 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
         <v>4</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1723,88 +1785,88 @@
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="13">
         <v>5</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A40" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A44" s="9">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A45" s="9">
-        <v>2</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="5">
+        <v>2</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A46" s="9">
+      <c r="A46" s="5">
         <v>3</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1813,88 +1875,88 @@
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="13">
         <v>6</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A54" s="9">
-        <v>1</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="5">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A55" s="9">
-        <v>2</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="5">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A56" s="9">
+      <c r="A56" s="5">
         <v>3</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1903,115 +1965,139 @@
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="13">
         <v>7</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="18"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="18"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A64" s="9">
-        <v>1</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="5">
+        <v>1</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A65" s="9">
-        <v>2</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="5">
+        <v>2</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A66" s="9">
+      <c r="A66" s="5">
         <v>3</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A67" s="9">
+      <c r="A67" s="5">
         <v>4</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A68" s="9">
+      <c r="A68" s="5">
         <v>5</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B61:C61"/>
@@ -2023,30 +2109,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2075,109 +2137,109 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="13">
         <v>8</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="14"/>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="16"/>
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="16"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="16"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2186,164 +2248,164 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="14"/>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="16"/>
+      <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="16"/>
+      <c r="E12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="16"/>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="16"/>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A17" s="9">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2352,142 +2414,142 @@
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
         <v>10</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="14"/>
+      <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="16"/>
+      <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="16"/>
+      <c r="E26" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="E27" s="6" t="s">
+      <c r="C27" s="16"/>
+      <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="16"/>
+      <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A30" s="9">
-        <v>1</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A31" s="9">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>3</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A34" s="9">
+      <c r="A34" s="5">
         <v>5</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2496,121 +2558,121 @@
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="13">
         <v>11</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A42" s="9">
-        <v>1</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="5">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A43" s="9">
-        <v>2</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A44" s="9">
+      <c r="A44" s="5">
         <v>3</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A45" s="9">
+      <c r="A45" s="5">
         <v>5</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16" customHeight="1" thickBot="1">
-      <c r="A46" s="9">
+      <c r="A46" s="5">
         <v>5</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A47" s="9">
+      <c r="A47" s="5">
         <v>7</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2619,132 +2681,131 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="13">
         <v>12</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="18"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="18"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A55" s="9">
-        <v>1</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="5">
+        <v>1</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A56" s="9">
-        <v>2</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="5">
+        <v>2</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A57" s="9">
+      <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A58" s="9">
+      <c r="A58" s="5">
         <v>5</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.9" customHeight="1" thickBot="1">
-      <c r="A59" s="9">
+      <c r="A59" s="5">
         <v>6</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A60" s="9">
+      <c r="A60" s="5">
         <v>7</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="5" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
@@ -2759,11 +2820,12 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2792,66 +2854,66 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="13">
         <v>13</v>
       </c>
-      <c r="C1" s="20"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2860,77 +2922,77 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>14</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" thickBot="1">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2939,88 +3001,82 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A24" s="9">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A25" s="9">
-        <v>2</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -3030,6 +3086,12 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3058,98 +3120,98 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="13">
         <v>16</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="14"/>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="16"/>
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="16"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="16"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3158,77 +3220,77 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>17</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="72" thickBot="1">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3237,66 +3299,66 @@
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>18</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A24" s="9">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3305,77 +3367,71 @@
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="13">
         <v>19</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.5" thickBot="1">
-      <c r="A32" s="9">
-        <v>1</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="5" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
@@ -3390,6 +3446,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3398,369 +3460,242 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA604B3-0C5C-4181-85ED-31E5183E3F51}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75"/>
   <cols>
     <col min="1" max="1" width="45.1328125" customWidth="1"/>
     <col min="2" max="2" width="65.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
     <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.40625" customWidth="1"/>
     <col min="6" max="6" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:3" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="E3" s="6" t="s">
+      <c r="B1" s="13">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" thickBot="1"/>
+    <row r="9" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="B9" s="13">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="B12" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="B13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
-    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" thickBot="1"/>
+    <row r="17" spans="1:3" ht="12" customHeight="1" thickBot="1">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="E12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="B17" s="13">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" thickBot="1">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="B20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" thickBot="1">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="E14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="B21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" thickBot="1">
+      <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
-    <row r="19" spans="1:6" ht="12" customHeight="1" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="E21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.5" thickBot="1"/>
-    <row r="28" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="E30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="E31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A32" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="E32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.5" thickBot="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
